--- a/biology/Médecine/5-Méthoxy-diisopropyltryptamine/5-Méthoxy-diisopropyltryptamine.xlsx
+++ b/biology/Médecine/5-Méthoxy-diisopropyltryptamine/5-Méthoxy-diisopropyltryptamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5-M%C3%A9thoxy-diisopropyltryptamine</t>
+          <t>5-Méthoxy-diisopropyltryptamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 5-méthoxy-diisopropyltryptamine ou 5-MeO-DiPT est un psychotrope hallucinogène actif dès une dose de 5 mg chez l'adulte. Elle est considérée comme un stupéfiant dans certains pays.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5-M%C3%A9thoxy-diisopropyltryptamine</t>
+          <t>5-Méthoxy-diisopropyltryptamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La 5-MeO-DiPT est un dérivé de la tryptamine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5-M%C3%A9thoxy-diisopropyltryptamine</t>
+          <t>5-Méthoxy-diisopropyltryptamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 5-méthoxy-diisopropyltryptamine est un agoniste du 5-HT2A (en) au niveau cérébral et un inhibiteur vraisemblable de la monoamine oxydase[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 5-méthoxy-diisopropyltryptamine est un agoniste du 5-HT2A (en) au niveau cérébral et un inhibiteur vraisemblable de la monoamine oxydase.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5-M%C3%A9thoxy-diisopropyltryptamine</t>
+          <t>5-Méthoxy-diisopropyltryptamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Illusions sensorielles[3].
-Effets aphrodisiaques[3].
-Exacerbation des sens (notamment tactile et sensibilité à la musique)[3].
-Déformations auditives et spatio-temporelles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illusions sensorielles.
+Effets aphrodisiaques.
+Exacerbation des sens (notamment tactile et sensibilité à la musique).
+Déformations auditives et spatio-temporelles.
 Comme tout produit psychédélique, son usage peut générer des bad trips. 
 </t>
         </is>
